--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4268.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4268.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sabbir Rahman</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3708</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1181,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>19/04/2015</t>
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1164,7 +1228,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1420,7 +1483,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1530,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1580,7 +1641,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3856</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1632,7 +1693,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1684,7 +1745,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1736,7 +1797,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1788,7 +1849,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1840,7 +1901,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1953,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1996,7 +2057,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2048,7 +2109,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2100,7 +2161,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2152,7 +2213,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2192,7 +2253,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -2200,7 +2260,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2252,7 +2312,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2304,7 +2364,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2356,7 +2416,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2408,7 +2468,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2460,7 +2520,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2512,7 +2572,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2564,7 +2624,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2616,7 +2676,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2668,7 +2728,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2720,7 +2780,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2772,7 +2832,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2824,7 +2884,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2864,7 +2924,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -2872,7 +2931,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2924,7 +2983,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2976,7 +3035,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3028,7 +3087,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3080,7 +3139,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3132,7 +3191,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3184,7 +3243,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3236,7 +3295,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3288,7 +3347,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3340,7 +3399,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3392,7 +3451,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3432,7 +3491,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -3440,7 +3498,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3492,7 +3550,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3544,7 +3602,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3596,7 +3654,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3648,7 +3706,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3700,7 +3758,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3752,7 +3810,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3804,7 +3862,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3856,7 +3914,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3895,7 +3953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3917,7 +3975,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3954,7 +4012,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3991,7 +4049,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4028,7 +4086,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4065,7 +4123,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4102,7 +4160,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4139,7 +4197,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4176,7 +4234,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4213,7 +4271,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4250,7 +4308,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4287,7 +4345,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4324,7 +4382,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4361,7 +4419,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4398,7 +4456,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4435,7 +4493,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4472,7 +4530,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4509,7 +4567,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4546,7 +4604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4583,7 +4641,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4620,7 +4678,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4657,7 +4715,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4694,7 +4752,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4720,6 +4778,541 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>0/20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.50%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12.20%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4181</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.99%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.60%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19.03%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.15%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.59%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4268.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4268.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4841,9 +4842,6 @@
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4976,10 +4974,6 @@
           <t>4179</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5145,9 +5139,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5173,7 +5164,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5186,10 +5176,6 @@
           <t>4295</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5215,7 +5201,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5228,10 +5213,6 @@
           <t>4329</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5274,10 +5255,6 @@
           <t>4356</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5290,10 +5267,6 @@
           <t>4357</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5306,15 +5279,303 @@
           <t>4358</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3701</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3702</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3765</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3784</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3799</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3813</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3971</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4031</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4086</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4268.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4268.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,6 +1180,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>19/04/2015</t>
@@ -1229,6 +1228,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -1484,6 +1484,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -1531,6 +1532,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -2254,6 +2256,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -2266,7 +2269,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2925,6 +2928,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -3492,6 +3496,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -4785,799 +4790,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4109</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4116</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.50%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4121</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.78%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4122</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12.20%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.48%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.99%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4250</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.60%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19.03%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>42.15%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4329</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>12.59%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3701</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3702</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3754</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3765</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3774</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3784</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3799</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3813</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3857</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3938</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3971</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4031</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4047</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4083</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4086</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4250</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>